--- a/brown_2020_3_27.xlsx
+++ b/brown_2020_3_27.xlsx
@@ -1292,12 +1292,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="D541" sqref="D541"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
@@ -1409,7 +1412,7 @@
         <v>0.75</v>
       </c>
       <c r="D2" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1504,7 +1507,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="D3" s="2">
-        <v>0.41736111111111113</v>
+        <v>0.45902777777777781</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1599,7 +1602,7 @@
         <v>0.75138888888888899</v>
       </c>
       <c r="D4" s="2">
-        <v>0.41805555555555557</v>
+        <v>0.4597222222222222</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1694,7 +1697,7 @@
         <v>0.75208333333333333</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41875000000000001</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1789,7 +1792,7 @@
         <v>0.75277777777777777</v>
       </c>
       <c r="D6" s="2">
-        <v>0.41944444444444445</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1884,7 +1887,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="D7" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1979,7 +1982,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="D8" s="2">
-        <v>0.42083333333333334</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2074,7 +2077,7 @@
         <v>0.75486111111111109</v>
       </c>
       <c r="D9" s="2">
-        <v>0.42152777777777778</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2169,7 +2172,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="D10" s="2">
-        <v>0.42222222222222222</v>
+        <v>0.46388888888888885</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2264,7 +2267,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="D11" s="2">
-        <v>0.42291666666666666</v>
+        <v>0.46458333333333335</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2359,7 +2362,7 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="D12" s="2">
-        <v>0.4236111111111111</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2454,7 +2457,7 @@
         <v>0.75763888888888886</v>
       </c>
       <c r="D13" s="2">
-        <v>0.42430555555555555</v>
+        <v>0.46597222222222223</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2549,7 +2552,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="D14" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2644,7 +2647,7 @@
         <v>0.75902777777777775</v>
       </c>
       <c r="D15" s="2">
-        <v>0.42569444444444443</v>
+        <v>0.46736111111111112</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2739,7 +2742,7 @@
         <v>0.7597222222222223</v>
       </c>
       <c r="D16" s="2">
-        <v>0.42638888888888887</v>
+        <v>0.4680555555555555</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2834,7 +2837,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="D17" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2929,7 +2932,7 @@
         <v>0.76111111111111107</v>
       </c>
       <c r="D18" s="2">
-        <v>0.42777777777777781</v>
+        <v>0.4694444444444445</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -3024,7 +3027,7 @@
         <v>0.76180555555555562</v>
       </c>
       <c r="D19" s="2">
-        <v>0.4284722222222222</v>
+        <v>0.47013888888888888</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3119,7 +3122,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="D20" s="2">
-        <v>0.4291666666666667</v>
+        <v>0.47083333333333338</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3214,7 +3217,7 @@
         <v>0.7631944444444444</v>
       </c>
       <c r="D21" s="2">
-        <v>0.42986111111111108</v>
+        <v>0.47152777777777777</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3309,7 +3312,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="D22" s="2">
-        <v>0.43055555555555558</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3404,7 +3407,7 @@
         <v>0.76458333333333339</v>
       </c>
       <c r="D23" s="2">
-        <v>0.43124999999999997</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3499,7 +3502,7 @@
         <v>0.76527777777777783</v>
       </c>
       <c r="D24" s="2">
-        <v>0.43194444444444446</v>
+        <v>0.47361111111111115</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3594,7 +3597,7 @@
         <v>0.76597222222222217</v>
       </c>
       <c r="D25" s="2">
-        <v>0.43263888888888885</v>
+        <v>0.47430555555555554</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3689,7 +3692,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="D26" s="2">
-        <v>0.43333333333333335</v>
+        <v>0.47500000000000003</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3784,7 +3787,7 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="D27" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3879,7 +3882,7 @@
         <v>0.7680555555555556</v>
       </c>
       <c r="D28" s="2">
-        <v>0.43472222222222223</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3974,7 +3977,7 @@
         <v>0.76874999999999993</v>
       </c>
       <c r="D29" s="2">
-        <v>0.43541666666666662</v>
+        <v>0.4770833333333333</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4069,7 +4072,7 @@
         <v>0.76944444444444438</v>
       </c>
       <c r="D30" s="2">
-        <v>0.43611111111111112</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4164,7 +4167,7 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D31" s="2">
-        <v>0.4368055555555555</v>
+        <v>0.47847222222222219</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4259,7 +4262,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D32" s="2">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4354,7 +4357,7 @@
         <v>0.7715277777777777</v>
       </c>
       <c r="D33" s="2">
-        <v>0.4381944444444445</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4449,7 +4452,7 @@
         <v>0.77222222222222225</v>
       </c>
       <c r="D34" s="2">
-        <v>0.43888888888888888</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4544,7 +4547,7 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="D35" s="2">
-        <v>0.43958333333333338</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4639,7 +4642,7 @@
         <v>0.77361111111111114</v>
       </c>
       <c r="D36" s="2">
-        <v>0.44027777777777777</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -4734,7 +4737,7 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="D37" s="2">
-        <v>0.44097222222222227</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -4829,7 +4832,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="D38" s="2">
-        <v>0.44166666666666665</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -4924,7 +4927,7 @@
         <v>0.77569444444444446</v>
       </c>
       <c r="D39" s="2">
-        <v>0.44236111111111115</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="E39">
         <v>11</v>
@@ -5019,7 +5022,7 @@
         <v>0.77638888888888891</v>
       </c>
       <c r="D40" s="2">
-        <v>0.44305555555555554</v>
+        <v>0.48472222222222222</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5114,7 +5117,7 @@
         <v>0.77708333333333324</v>
       </c>
       <c r="D41" s="2">
-        <v>0.44375000000000003</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -5209,7 +5212,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D42" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5304,7 +5307,7 @@
         <v>0.77847222222222223</v>
       </c>
       <c r="D43" s="2">
-        <v>0.44513888888888892</v>
+        <v>0.48680555555555555</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5399,7 +5402,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="D44" s="2">
-        <v>0.4458333333333333</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5494,7 +5497,7 @@
         <v>0.77986111111111101</v>
       </c>
       <c r="D45" s="2">
-        <v>0.4465277777777778</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5589,7 +5592,7 @@
         <v>0.78055555555555556</v>
       </c>
       <c r="D46" s="2">
-        <v>0.44722222222222219</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5684,7 +5687,7 @@
         <v>0.78125</v>
       </c>
       <c r="D47" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5779,7 +5782,7 @@
         <v>0.78194444444444444</v>
       </c>
       <c r="D48" s="2">
-        <v>0.44861111111111113</v>
+        <v>0.49027777777777781</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5874,7 +5877,7 @@
         <v>0.78263888888888899</v>
       </c>
       <c r="D49" s="2">
-        <v>0.44930555555555557</v>
+        <v>0.4909722222222222</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5969,7 +5972,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="D50" s="2">
-        <v>0.45</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6064,7 +6067,7 @@
         <v>0.78402777777777777</v>
       </c>
       <c r="D51" s="2">
-        <v>0.45069444444444445</v>
+        <v>0.49236111111111108</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6159,7 +6162,7 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="D52" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6254,7 +6257,7 @@
         <v>0.78541666666666676</v>
       </c>
       <c r="D53" s="2">
-        <v>0.45208333333333334</v>
+        <v>0.49374999999999997</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -6349,7 +6352,7 @@
         <v>0.78611111111111109</v>
       </c>
       <c r="D54" s="2">
-        <v>0.45277777777777778</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6444,7 +6447,7 @@
         <v>0.78680555555555554</v>
       </c>
       <c r="D55" s="2">
-        <v>0.45347222222222222</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6539,7 +6542,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="D56" s="2">
-        <v>0.45416666666666666</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6634,7 +6637,7 @@
         <v>0.78819444444444453</v>
       </c>
       <c r="D57" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6729,7 +6732,7 @@
         <v>0.78888888888888886</v>
       </c>
       <c r="D58" s="2">
-        <v>0.45555555555555555</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6824,7 +6827,7 @@
         <v>0.7895833333333333</v>
       </c>
       <c r="D59" s="2">
-        <v>0.45624999999999999</v>
+        <v>0.49791666666666662</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6919,7 +6922,7 @@
         <v>0.79027777777777775</v>
       </c>
       <c r="D60" s="2">
-        <v>0.45694444444444443</v>
+        <v>0.49861111111111112</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -7014,7 +7017,7 @@
         <v>0.7909722222222223</v>
       </c>
       <c r="D61" s="2">
-        <v>0.45763888888888887</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -7109,7 +7112,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D62" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -7204,7 +7207,7 @@
         <v>0.79236111111111107</v>
       </c>
       <c r="D63" s="2">
-        <v>0.45902777777777781</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -7299,7 +7302,7 @@
         <v>0.79305555555555562</v>
       </c>
       <c r="D64" s="2">
-        <v>0.4597222222222222</v>
+        <v>0.50138888888888888</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -7394,7 +7397,7 @@
         <v>0.79375000000000007</v>
       </c>
       <c r="D65" s="2">
-        <v>0.4604166666666667</v>
+        <v>0.50208333333333333</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -7489,7 +7492,7 @@
         <v>0.7944444444444444</v>
       </c>
       <c r="D66" s="2">
-        <v>0.46111111111111108</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -7584,7 +7587,7 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="D67" s="2">
-        <v>0.46180555555555558</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -7679,7 +7682,7 @@
         <v>0.79583333333333339</v>
       </c>
       <c r="D68" s="2">
-        <v>0.46249999999999997</v>
+        <v>0.50416666666666665</v>
       </c>
       <c r="E68">
         <v>15</v>
@@ -7774,7 +7777,7 @@
         <v>0.79652777777777783</v>
       </c>
       <c r="D69" s="2">
-        <v>0.46319444444444446</v>
+        <v>0.50486111111111109</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -7869,7 +7872,7 @@
         <v>0.79722222222222217</v>
       </c>
       <c r="D70" s="2">
-        <v>0.46388888888888885</v>
+        <v>0.50555555555555554</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -7964,7 +7967,7 @@
         <v>0.79791666666666661</v>
       </c>
       <c r="D71" s="2">
-        <v>0.46458333333333335</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8059,7 +8062,7 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="D72" s="2">
-        <v>0.46527777777777773</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -8154,7 +8157,7 @@
         <v>0.7993055555555556</v>
       </c>
       <c r="D73" s="2">
-        <v>0.46597222222222223</v>
+        <v>0.50763888888888886</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -8249,7 +8252,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="D74" s="2">
-        <v>0.46666666666666662</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -8344,7 +8347,7 @@
         <v>0.80069444444444438</v>
       </c>
       <c r="D75" s="2">
-        <v>0.46736111111111112</v>
+        <v>0.50902777777777775</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -8439,7 +8442,7 @@
         <v>0.80138888888888893</v>
       </c>
       <c r="D76" s="2">
-        <v>0.4680555555555555</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -8534,7 +8537,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D77" s="2">
-        <v>0.46875</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -8629,7 +8632,7 @@
         <v>0.8027777777777777</v>
       </c>
       <c r="D78" s="2">
-        <v>0.4694444444444445</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -8724,7 +8727,7 @@
         <v>0.80347222222222225</v>
       </c>
       <c r="D79" s="2">
-        <v>0.47013888888888888</v>
+        <v>0.51180555555555551</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -8819,7 +8822,7 @@
         <v>0.8041666666666667</v>
       </c>
       <c r="D80" s="2">
-        <v>0.47083333333333338</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -8914,7 +8917,7 @@
         <v>0.80486111111111114</v>
       </c>
       <c r="D81" s="2">
-        <v>0.47152777777777777</v>
+        <v>0.5131944444444444</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -9009,7 +9012,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="D82" s="2">
-        <v>0.47222222222222227</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -9104,7 +9107,7 @@
         <v>0.80625000000000002</v>
       </c>
       <c r="D83" s="2">
-        <v>0.47291666666666665</v>
+        <v>0.51458333333333328</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -9199,7 +9202,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="D84" s="2">
-        <v>0.47361111111111115</v>
+        <v>0.51527777777777783</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -9294,7 +9297,7 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="D85" s="2">
-        <v>0.47430555555555554</v>
+        <v>0.51597222222222217</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -9389,7 +9392,7 @@
         <v>0.80833333333333324</v>
       </c>
       <c r="D86" s="2">
-        <v>0.47500000000000003</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -9484,7 +9487,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="D87" s="2">
-        <v>0.47569444444444442</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -9579,7 +9582,7 @@
         <v>0.80972222222222223</v>
       </c>
       <c r="D88" s="2">
-        <v>0.47638888888888892</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -9674,7 +9677,7 @@
         <v>0.81041666666666667</v>
       </c>
       <c r="D89" s="2">
-        <v>0.4770833333333333</v>
+        <v>0.51874999999999993</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -9769,7 +9772,7 @@
         <v>0.81111111111111101</v>
       </c>
       <c r="D90" s="2">
-        <v>0.4777777777777778</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -9864,7 +9867,7 @@
         <v>0.81180555555555556</v>
       </c>
       <c r="D91" s="2">
-        <v>0.47847222222222219</v>
+        <v>0.52013888888888882</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -9959,7 +9962,7 @@
         <v>0.8125</v>
       </c>
       <c r="D92" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -10054,7 +10057,7 @@
         <v>0.81319444444444444</v>
       </c>
       <c r="D93" s="2">
-        <v>0.47986111111111113</v>
+        <v>0.52152777777777781</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -10149,7 +10152,7 @@
         <v>0.81388888888888899</v>
       </c>
       <c r="D94" s="2">
-        <v>0.48055555555555557</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -10244,7 +10247,7 @@
         <v>0.81458333333333333</v>
       </c>
       <c r="D95" s="2">
-        <v>0.48125000000000001</v>
+        <v>0.5229166666666667</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -10339,7 +10342,7 @@
         <v>0.81527777777777777</v>
       </c>
       <c r="D96" s="2">
-        <v>0.48194444444444445</v>
+        <v>0.52361111111111114</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -10434,7 +10437,7 @@
         <v>0.81597222222222221</v>
       </c>
       <c r="D97" s="2">
-        <v>0.4826388888888889</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -10529,7 +10532,7 @@
         <v>0.81666666666666676</v>
       </c>
       <c r="D98" s="2">
-        <v>0.48333333333333334</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -10624,7 +10627,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="D99" s="2">
-        <v>0.48402777777777778</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -10719,7 +10722,7 @@
         <v>0.81805555555555554</v>
       </c>
       <c r="D100" s="2">
-        <v>0.48472222222222222</v>
+        <v>0.52638888888888891</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -10814,7 +10817,7 @@
         <v>0.81874999999999998</v>
       </c>
       <c r="D101" s="2">
-        <v>0.48541666666666666</v>
+        <v>0.52708333333333335</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -10909,7 +10912,7 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="D102" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -11004,7 +11007,7 @@
         <v>0.82013888888888886</v>
       </c>
       <c r="D103" s="2">
-        <v>0.48680555555555555</v>
+        <v>0.52847222222222223</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -11099,7 +11102,7 @@
         <v>0.8208333333333333</v>
       </c>
       <c r="D104" s="2">
-        <v>0.48749999999999999</v>
+        <v>0.52916666666666667</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -11194,7 +11197,7 @@
         <v>0.82152777777777775</v>
       </c>
       <c r="D105" s="2">
-        <v>0.48819444444444443</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -11289,7 +11292,7 @@
         <v>0.8222222222222223</v>
       </c>
       <c r="D106" s="2">
-        <v>0.48888888888888887</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -11384,7 +11387,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="D107" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -11479,7 +11482,7 @@
         <v>0.82361111111111107</v>
       </c>
       <c r="D108" s="2">
-        <v>0.49027777777777781</v>
+        <v>0.53194444444444444</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -11574,7 +11577,7 @@
         <v>0.82430555555555562</v>
       </c>
       <c r="D109" s="2">
-        <v>0.4909722222222222</v>
+        <v>0.53263888888888888</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -11669,7 +11672,7 @@
         <v>0.82500000000000007</v>
       </c>
       <c r="D110" s="2">
-        <v>0.4916666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -11764,7 +11767,7 @@
         <v>0.8256944444444444</v>
       </c>
       <c r="D111" s="2">
-        <v>0.49236111111111108</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -11859,7 +11862,7 @@
         <v>0.82638888888888884</v>
       </c>
       <c r="D112" s="2">
-        <v>0.49305555555555558</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -11954,7 +11957,7 @@
         <v>0.82708333333333339</v>
       </c>
       <c r="D113" s="2">
-        <v>0.49374999999999997</v>
+        <v>0.53541666666666665</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -12049,7 +12052,7 @@
         <v>0.82777777777777783</v>
       </c>
       <c r="D114" s="2">
-        <v>0.49444444444444446</v>
+        <v>0.53611111111111109</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -12144,7 +12147,7 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="D115" s="2">
-        <v>0.49513888888888885</v>
+        <v>0.53680555555555554</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -12239,7 +12242,7 @@
         <v>0.82916666666666661</v>
       </c>
       <c r="D116" s="2">
-        <v>0.49583333333333335</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -12334,7 +12337,7 @@
         <v>0.82986111111111116</v>
       </c>
       <c r="D117" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -12429,7 +12432,7 @@
         <v>0.8305555555555556</v>
       </c>
       <c r="D118" s="2">
-        <v>0.49722222222222223</v>
+        <v>0.53888888888888886</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -12524,7 +12527,7 @@
         <v>0.83124999999999993</v>
       </c>
       <c r="D119" s="2">
-        <v>0.49791666666666662</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -12619,7 +12622,7 @@
         <v>0.83194444444444438</v>
       </c>
       <c r="D120" s="2">
-        <v>0.49861111111111112</v>
+        <v>0.54027777777777775</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -12714,7 +12717,7 @@
         <v>0.83263888888888893</v>
       </c>
       <c r="D121" s="2">
-        <v>0.4993055555555555</v>
+        <v>0.54097222222222219</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -12809,7 +12812,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D122" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -12904,7 +12907,7 @@
         <v>0.8340277777777777</v>
       </c>
       <c r="D123" s="2">
-        <v>0.50069444444444444</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -12999,7 +13002,7 @@
         <v>0.83472222222222225</v>
       </c>
       <c r="D124" s="2">
-        <v>0.50138888888888888</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -13094,7 +13097,7 @@
         <v>0.8354166666666667</v>
       </c>
       <c r="D125" s="2">
-        <v>0.50208333333333333</v>
+        <v>0.54375000000000007</v>
       </c>
       <c r="E125">
         <v>5</v>
@@ -13189,7 +13192,7 @@
         <v>0.83611111111111114</v>
       </c>
       <c r="D126" s="2">
-        <v>0.50277777777777777</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -13284,7 +13287,7 @@
         <v>0.83680555555555547</v>
       </c>
       <c r="D127" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -13379,7 +13382,7 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="D128" s="2">
-        <v>0.50416666666666665</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -13474,7 +13477,7 @@
         <v>0.83819444444444446</v>
       </c>
       <c r="D129" s="2">
-        <v>0.50486111111111109</v>
+        <v>0.54652777777777783</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -13569,7 +13572,7 @@
         <v>0.83888888888888891</v>
       </c>
       <c r="D130" s="2">
-        <v>0.50555555555555554</v>
+        <v>0.54722222222222217</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -13664,7 +13667,7 @@
         <v>0.83958333333333324</v>
       </c>
       <c r="D131" s="2">
-        <v>0.50624999999999998</v>
+        <v>0.54791666666666672</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -13759,7 +13762,7 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="D132" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -13854,7 +13857,7 @@
         <v>0.84097222222222223</v>
       </c>
       <c r="D133" s="2">
-        <v>0.50763888888888886</v>
+        <v>0.5493055555555556</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -13949,7 +13952,7 @@
         <v>0.84166666666666667</v>
       </c>
       <c r="D134" s="2">
-        <v>0.5083333333333333</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -14044,7 +14047,7 @@
         <v>0.84236111111111101</v>
       </c>
       <c r="D135" s="2">
-        <v>0.50902777777777775</v>
+        <v>0.55069444444444449</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -14139,7 +14142,7 @@
         <v>0.84305555555555556</v>
       </c>
       <c r="D136" s="2">
-        <v>0.50972222222222219</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -14234,7 +14237,7 @@
         <v>0.84375</v>
       </c>
       <c r="D137" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -14329,7 +14332,7 @@
         <v>0.84444444444444444</v>
       </c>
       <c r="D138" s="2">
-        <v>0.51111111111111118</v>
+        <v>0.55277777777777781</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -14424,7 +14427,7 @@
         <v>0.84513888888888899</v>
       </c>
       <c r="D139" s="2">
-        <v>0.51180555555555551</v>
+        <v>0.55347222222222225</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -14519,7 +14522,7 @@
         <v>0.84583333333333333</v>
       </c>
       <c r="D140" s="2">
-        <v>0.51250000000000007</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -14614,7 +14617,7 @@
         <v>0.84652777777777777</v>
       </c>
       <c r="D141" s="2">
-        <v>0.5131944444444444</v>
+        <v>0.55486111111111114</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -14709,7 +14712,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="D142" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -14804,7 +14807,7 @@
         <v>0.84791666666666676</v>
       </c>
       <c r="D143" s="2">
-        <v>0.51458333333333328</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -14899,7 +14902,7 @@
         <v>0.84861111111111109</v>
       </c>
       <c r="D144" s="2">
-        <v>0.51527777777777783</v>
+        <v>0.55694444444444446</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -14994,7 +14997,7 @@
         <v>0.84930555555555554</v>
       </c>
       <c r="D145" s="2">
-        <v>0.51597222222222217</v>
+        <v>0.55763888888888891</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -15089,7 +15092,7 @@
         <v>0.85</v>
       </c>
       <c r="D146" s="2">
-        <v>0.51666666666666672</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="E146">
         <v>6</v>
@@ -15184,7 +15187,7 @@
         <v>0.85069444444444453</v>
       </c>
       <c r="D147" s="2">
-        <v>0.51736111111111105</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -15279,7 +15282,7 @@
         <v>0.85138888888888886</v>
       </c>
       <c r="D148" s="2">
-        <v>0.5180555555555556</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -15374,7 +15377,7 @@
         <v>0.8520833333333333</v>
       </c>
       <c r="D149" s="2">
-        <v>0.51874999999999993</v>
+        <v>0.56041666666666667</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -15469,7 +15472,7 @@
         <v>0.85277777777777775</v>
       </c>
       <c r="D150" s="2">
-        <v>0.51944444444444449</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -15564,7 +15567,7 @@
         <v>0.8534722222222223</v>
       </c>
       <c r="D151" s="2">
-        <v>0.52013888888888882</v>
+        <v>0.56180555555555556</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -15659,7 +15662,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="D152" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -15754,7 +15757,7 @@
         <v>0.85486111111111107</v>
       </c>
       <c r="D153" s="2">
-        <v>0.52152777777777781</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -15849,7 +15852,7 @@
         <v>0.85555555555555562</v>
       </c>
       <c r="D154" s="2">
-        <v>0.52222222222222225</v>
+        <v>0.56388888888888888</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -15944,7 +15947,7 @@
         <v>0.85625000000000007</v>
       </c>
       <c r="D155" s="2">
-        <v>0.5229166666666667</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -16039,7 +16042,7 @@
         <v>0.8569444444444444</v>
       </c>
       <c r="D156" s="2">
-        <v>0.52361111111111114</v>
+        <v>0.56527777777777777</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -16134,7 +16137,7 @@
         <v>0.85763888888888884</v>
       </c>
       <c r="D157" s="2">
-        <v>0.52430555555555558</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -16229,7 +16232,7 @@
         <v>0.85833333333333339</v>
       </c>
       <c r="D158" s="2">
-        <v>0.52500000000000002</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -16324,7 +16327,7 @@
         <v>0.85902777777777783</v>
       </c>
       <c r="D159" s="2">
-        <v>0.52569444444444446</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -16419,7 +16422,7 @@
         <v>0.85972222222222217</v>
       </c>
       <c r="D160" s="2">
-        <v>0.52638888888888891</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -16514,7 +16517,7 @@
         <v>0.86041666666666661</v>
       </c>
       <c r="D161" s="2">
-        <v>0.52708333333333335</v>
+        <v>0.56874999999999998</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -16609,7 +16612,7 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="D162" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -16704,7 +16707,7 @@
         <v>0.8618055555555556</v>
       </c>
       <c r="D163" s="2">
-        <v>0.52847222222222223</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -16799,7 +16802,7 @@
         <v>0.86249999999999993</v>
       </c>
       <c r="D164" s="2">
-        <v>0.52916666666666667</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -16894,7 +16897,7 @@
         <v>0.86319444444444438</v>
       </c>
       <c r="D165" s="2">
-        <v>0.52986111111111112</v>
+        <v>0.57152777777777775</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -16989,7 +16992,7 @@
         <v>0.86388888888888893</v>
       </c>
       <c r="D166" s="2">
-        <v>0.53055555555555556</v>
+        <v>0.57222222222222219</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -17084,7 +17087,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="D167" s="2">
-        <v>0.53125</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -17179,7 +17182,7 @@
         <v>0.8652777777777777</v>
       </c>
       <c r="D168" s="2">
-        <v>0.53194444444444444</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -17274,7 +17277,7 @@
         <v>0.86597222222222225</v>
       </c>
       <c r="D169" s="2">
-        <v>0.53263888888888888</v>
+        <v>0.57430555555555551</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -17369,7 +17372,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="D170" s="2">
-        <v>0.53333333333333333</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -17464,7 +17467,7 @@
         <v>0.86736111111111114</v>
       </c>
       <c r="D171" s="2">
-        <v>0.53402777777777777</v>
+        <v>0.5756944444444444</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -17559,7 +17562,7 @@
         <v>0.86805555555555547</v>
       </c>
       <c r="D172" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -17654,7 +17657,7 @@
         <v>0.86875000000000002</v>
       </c>
       <c r="D173" s="2">
-        <v>0.53541666666666665</v>
+        <v>0.57708333333333328</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -17749,7 +17752,7 @@
         <v>0.86944444444444446</v>
       </c>
       <c r="D174" s="2">
-        <v>0.53611111111111109</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -17844,7 +17847,7 @@
         <v>0.87013888888888891</v>
       </c>
       <c r="D175" s="2">
-        <v>0.53680555555555554</v>
+        <v>0.57847222222222217</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -17939,7 +17942,7 @@
         <v>0.87083333333333324</v>
       </c>
       <c r="D176" s="2">
-        <v>0.53749999999999998</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -18034,7 +18037,7 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="D177" s="2">
-        <v>0.53819444444444442</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -18129,7 +18132,7 @@
         <v>0.87222222222222223</v>
       </c>
       <c r="D178" s="2">
-        <v>0.53888888888888886</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -18224,7 +18227,7 @@
         <v>0.87291666666666667</v>
       </c>
       <c r="D179" s="2">
-        <v>0.5395833333333333</v>
+        <v>0.58124999999999993</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -18319,7 +18322,7 @@
         <v>0.87361111111111101</v>
       </c>
       <c r="D180" s="2">
-        <v>0.54027777777777775</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -18414,7 +18417,7 @@
         <v>0.87430555555555556</v>
       </c>
       <c r="D181" s="2">
-        <v>0.54097222222222219</v>
+        <v>0.58263888888888882</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -18509,7 +18512,7 @@
         <v>0.875</v>
       </c>
       <c r="D182" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -18604,7 +18607,7 @@
         <v>0.87569444444444444</v>
       </c>
       <c r="D183" s="2">
-        <v>0.54236111111111118</v>
+        <v>0.58402777777777781</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -18699,7 +18702,7 @@
         <v>0.87638888888888899</v>
       </c>
       <c r="D184" s="2">
-        <v>0.54305555555555551</v>
+        <v>0.58472222222222225</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -18794,7 +18797,7 @@
         <v>0.87708333333333333</v>
       </c>
       <c r="D185" s="2">
-        <v>0.54375000000000007</v>
+        <v>0.5854166666666667</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -18889,7 +18892,7 @@
         <v>0.87777777777777777</v>
       </c>
       <c r="D186" s="2">
-        <v>0.5444444444444444</v>
+        <v>0.58611111111111114</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -18984,7 +18987,7 @@
         <v>0.87847222222222221</v>
       </c>
       <c r="D187" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -19079,7 +19082,7 @@
         <v>0.87916666666666676</v>
       </c>
       <c r="D188" s="2">
-        <v>0.54583333333333328</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="E188">
         <v>6</v>
@@ -19174,7 +19177,7 @@
         <v>0.87986111111111109</v>
       </c>
       <c r="D189" s="2">
-        <v>0.54652777777777783</v>
+        <v>0.58819444444444446</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -19269,7 +19272,7 @@
         <v>0.88055555555555554</v>
       </c>
       <c r="D190" s="2">
-        <v>0.54722222222222217</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -19364,7 +19367,7 @@
         <v>0.88124999999999998</v>
       </c>
       <c r="D191" s="2">
-        <v>0.54791666666666672</v>
+        <v>0.58958333333333335</v>
       </c>
       <c r="E191">
         <v>4</v>
@@ -19459,7 +19462,7 @@
         <v>0.88194444444444453</v>
       </c>
       <c r="D192" s="2">
-        <v>0.54861111111111105</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -19554,7 +19557,7 @@
         <v>0.88263888888888886</v>
       </c>
       <c r="D193" s="2">
-        <v>0.5493055555555556</v>
+        <v>0.59097222222222223</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -19649,7 +19652,7 @@
         <v>0.8833333333333333</v>
       </c>
       <c r="D194" s="2">
-        <v>0.54999999999999993</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -19744,7 +19747,7 @@
         <v>0.88402777777777775</v>
       </c>
       <c r="D195" s="2">
-        <v>0.55069444444444449</v>
+        <v>0.59236111111111112</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -19839,7 +19842,7 @@
         <v>0.8847222222222223</v>
       </c>
       <c r="D196" s="2">
-        <v>0.55138888888888882</v>
+        <v>0.59305555555555556</v>
       </c>
       <c r="E196">
         <v>6</v>
@@ -19934,7 +19937,7 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="D197" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E197">
         <v>4</v>
@@ -20029,7 +20032,7 @@
         <v>0.88611111111111107</v>
       </c>
       <c r="D198" s="2">
-        <v>0.55277777777777781</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="E198">
         <v>3</v>
@@ -20124,7 +20127,7 @@
         <v>0.88680555555555562</v>
       </c>
       <c r="D199" s="2">
-        <v>0.55347222222222225</v>
+        <v>0.59513888888888888</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -20219,7 +20222,7 @@
         <v>0.88750000000000007</v>
       </c>
       <c r="D200" s="2">
-        <v>0.5541666666666667</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="E200">
         <v>20</v>
@@ -20314,7 +20317,7 @@
         <v>0.8881944444444444</v>
       </c>
       <c r="D201" s="2">
-        <v>0.55486111111111114</v>
+        <v>0.59652777777777777</v>
       </c>
       <c r="E201">
         <v>11</v>
@@ -20409,7 +20412,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D202" s="2">
-        <v>0.55555555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -20504,7 +20507,7 @@
         <v>0.88958333333333339</v>
       </c>
       <c r="D203" s="2">
-        <v>0.55625000000000002</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -20599,7 +20602,7 @@
         <v>0.89027777777777783</v>
       </c>
       <c r="D204" s="2">
-        <v>0.55694444444444446</v>
+        <v>0.59861111111111109</v>
       </c>
       <c r="E204">
         <v>8</v>
@@ -20694,7 +20697,7 @@
         <v>0.89097222222222217</v>
       </c>
       <c r="D205" s="2">
-        <v>0.55763888888888891</v>
+        <v>0.59930555555555554</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -20789,7 +20792,7 @@
         <v>0.89166666666666661</v>
       </c>
       <c r="D206" s="2">
-        <v>0.55833333333333335</v>
+        <v>0.6</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -20884,7 +20887,7 @@
         <v>0.89236111111111116</v>
       </c>
       <c r="D207" s="2">
-        <v>0.55902777777777779</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -20979,7 +20982,7 @@
         <v>0.8930555555555556</v>
       </c>
       <c r="D208" s="2">
-        <v>0.55972222222222223</v>
+        <v>0.60138888888888886</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -21074,7 +21077,7 @@
         <v>0.89374999999999993</v>
       </c>
       <c r="D209" s="2">
-        <v>0.56041666666666667</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -21169,7 +21172,7 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="D210" s="2">
-        <v>0.56111111111111112</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -21264,7 +21267,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="D211" s="2">
-        <v>0.56180555555555556</v>
+        <v>0.60347222222222219</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -21359,7 +21362,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D212" s="2">
-        <v>0.5625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -21454,7 +21457,7 @@
         <v>0.8965277777777777</v>
       </c>
       <c r="D213" s="2">
-        <v>0.56319444444444444</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -21549,7 +21552,7 @@
         <v>0.89722222222222225</v>
       </c>
       <c r="D214" s="2">
-        <v>0.56388888888888888</v>
+        <v>0.60555555555555551</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -21644,7 +21647,7 @@
         <v>0.8979166666666667</v>
       </c>
       <c r="D215" s="2">
-        <v>0.56458333333333333</v>
+        <v>0.60625000000000007</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -21739,7 +21742,7 @@
         <v>0.89861111111111114</v>
       </c>
       <c r="D216" s="2">
-        <v>0.56527777777777777</v>
+        <v>0.6069444444444444</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -21834,7 +21837,7 @@
         <v>0.89930555555555547</v>
       </c>
       <c r="D217" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.60763888888888895</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -21929,7 +21932,7 @@
         <v>0.9</v>
       </c>
       <c r="D218" s="2">
-        <v>0.56666666666666665</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -22024,7 +22027,7 @@
         <v>0.90069444444444446</v>
       </c>
       <c r="D219" s="2">
-        <v>0.56736111111111109</v>
+        <v>0.60902777777777783</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -22119,7 +22122,7 @@
         <v>0.90138888888888891</v>
       </c>
       <c r="D220" s="2">
-        <v>0.56805555555555554</v>
+        <v>0.60972222222222217</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -22214,7 +22217,7 @@
         <v>0.90208333333333324</v>
       </c>
       <c r="D221" s="2">
-        <v>0.56874999999999998</v>
+        <v>0.61041666666666672</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -22309,7 +22312,7 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="D222" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -22404,7 +22407,7 @@
         <v>0.90347222222222223</v>
       </c>
       <c r="D223" s="2">
-        <v>0.57013888888888886</v>
+        <v>0.6118055555555556</v>
       </c>
       <c r="E223">
         <v>8</v>
@@ -22499,7 +22502,7 @@
         <v>0.90416666666666667</v>
       </c>
       <c r="D224" s="2">
-        <v>0.5708333333333333</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -22594,7 +22597,7 @@
         <v>0.90486111111111101</v>
       </c>
       <c r="D225" s="2">
-        <v>0.57152777777777775</v>
+        <v>0.61319444444444449</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -22689,7 +22692,7 @@
         <v>0.90555555555555556</v>
       </c>
       <c r="D226" s="2">
-        <v>0.57222222222222219</v>
+        <v>0.61388888888888882</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -22784,7 +22787,7 @@
         <v>0.90625</v>
       </c>
       <c r="D227" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -22879,7 +22882,7 @@
         <v>0.90694444444444444</v>
       </c>
       <c r="D228" s="2">
-        <v>0.57361111111111118</v>
+        <v>0.61527777777777781</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -22974,7 +22977,7 @@
         <v>0.90763888888888899</v>
       </c>
       <c r="D229" s="2">
-        <v>0.57430555555555551</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="E229">
         <v>5</v>
@@ -23069,7 +23072,7 @@
         <v>0.90833333333333333</v>
       </c>
       <c r="D230" s="2">
-        <v>0.57500000000000007</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -23164,7 +23167,7 @@
         <v>0.90902777777777777</v>
       </c>
       <c r="D231" s="2">
-        <v>0.5756944444444444</v>
+        <v>0.61736111111111114</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -23259,7 +23262,7 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="D232" s="2">
-        <v>0.57638888888888895</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -23354,7 +23357,7 @@
         <v>0.91041666666666676</v>
       </c>
       <c r="D233" s="2">
-        <v>0.57708333333333328</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -23449,7 +23452,7 @@
         <v>0.91111111111111109</v>
       </c>
       <c r="D234" s="2">
-        <v>0.57777777777777783</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -23544,7 +23547,7 @@
         <v>0.91180555555555554</v>
       </c>
       <c r="D235" s="2">
-        <v>0.57847222222222217</v>
+        <v>0.62013888888888891</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -23639,7 +23642,7 @@
         <v>0.91249999999999998</v>
       </c>
       <c r="D236" s="2">
-        <v>0.57916666666666672</v>
+        <v>0.62083333333333335</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -23734,7 +23737,7 @@
         <v>0.91319444444444453</v>
       </c>
       <c r="D237" s="2">
-        <v>0.57986111111111105</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -23829,7 +23832,7 @@
         <v>0.91388888888888886</v>
       </c>
       <c r="D238" s="2">
-        <v>0.5805555555555556</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -23924,7 +23927,7 @@
         <v>0.9145833333333333</v>
       </c>
       <c r="D239" s="2">
-        <v>0.58124999999999993</v>
+        <v>0.62291666666666667</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -24019,7 +24022,7 @@
         <v>0.91527777777777775</v>
       </c>
       <c r="D240" s="2">
-        <v>0.58194444444444449</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -24114,7 +24117,7 @@
         <v>0.9159722222222223</v>
       </c>
       <c r="D241" s="2">
-        <v>0.58263888888888882</v>
+        <v>0.62430555555555556</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -24209,7 +24212,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="D242" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -24304,7 +24307,7 @@
         <v>0.91736111111111107</v>
       </c>
       <c r="D243" s="2">
-        <v>0.58402777777777781</v>
+        <v>0.62569444444444444</v>
       </c>
       <c r="E243">
         <v>2</v>
@@ -24399,7 +24402,7 @@
         <v>0.91805555555555562</v>
       </c>
       <c r="D244" s="2">
-        <v>0.58472222222222225</v>
+        <v>0.62638888888888888</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -24494,7 +24497,7 @@
         <v>0.91875000000000007</v>
       </c>
       <c r="D245" s="2">
-        <v>0.5854166666666667</v>
+        <v>0.62708333333333333</v>
       </c>
       <c r="E245">
         <v>5</v>
@@ -24589,7 +24592,7 @@
         <v>0.9194444444444444</v>
       </c>
       <c r="D246" s="2">
-        <v>0.58611111111111114</v>
+        <v>0.62777777777777777</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -24684,7 +24687,7 @@
         <v>0.92013888888888884</v>
       </c>
       <c r="D247" s="2">
-        <v>0.58680555555555558</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -24779,7 +24782,7 @@
         <v>0.92083333333333339</v>
       </c>
       <c r="D248" s="2">
-        <v>0.58750000000000002</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -24874,7 +24877,7 @@
         <v>0.92152777777777783</v>
       </c>
       <c r="D249" s="2">
-        <v>0.58819444444444446</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="E249">
         <v>4</v>
@@ -24969,7 +24972,7 @@
         <v>0.92222222222222217</v>
       </c>
       <c r="D250" s="2">
-        <v>0.58888888888888891</v>
+        <v>0.63055555555555554</v>
       </c>
       <c r="E250">
         <v>8</v>
@@ -25064,7 +25067,7 @@
         <v>0.92291666666666661</v>
       </c>
       <c r="D251" s="2">
-        <v>0.58958333333333335</v>
+        <v>0.63124999999999998</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -25159,7 +25162,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="D252" s="2">
-        <v>0.59027777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -25254,7 +25257,7 @@
         <v>0.9243055555555556</v>
       </c>
       <c r="D253" s="2">
-        <v>0.59097222222222223</v>
+        <v>0.63263888888888886</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -25349,7 +25352,7 @@
         <v>0.92499999999999993</v>
       </c>
       <c r="D254" s="2">
-        <v>0.59166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -25444,7 +25447,7 @@
         <v>0.92569444444444438</v>
       </c>
       <c r="D255" s="2">
-        <v>0.59236111111111112</v>
+        <v>0.63402777777777775</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -25539,7 +25542,7 @@
         <v>0.92638888888888893</v>
       </c>
       <c r="D256" s="2">
-        <v>0.59305555555555556</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="E256">
         <v>6</v>
@@ -25634,7 +25637,7 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="D257" s="2">
-        <v>0.59375</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -25729,7 +25732,7 @@
         <v>0.9277777777777777</v>
       </c>
       <c r="D258" s="2">
-        <v>0.59444444444444444</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="E258">
         <v>3</v>
@@ -25824,7 +25827,7 @@
         <v>0.92847222222222225</v>
       </c>
       <c r="D259" s="2">
-        <v>0.59513888888888888</v>
+        <v>0.63680555555555551</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -25919,7 +25922,7 @@
         <v>0.9291666666666667</v>
       </c>
       <c r="D260" s="2">
-        <v>0.59583333333333333</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -26014,7 +26017,7 @@
         <v>0.92986111111111114</v>
       </c>
       <c r="D261" s="2">
-        <v>0.59652777777777777</v>
+        <v>0.6381944444444444</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -26109,7 +26112,7 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="D262" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -26204,7 +26207,7 @@
         <v>0.93125000000000002</v>
       </c>
       <c r="D263" s="2">
-        <v>0.59791666666666665</v>
+        <v>0.63958333333333328</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -26299,7 +26302,7 @@
         <v>0.93194444444444446</v>
       </c>
       <c r="D264" s="2">
-        <v>0.59861111111111109</v>
+        <v>0.64027777777777783</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -26394,7 +26397,7 @@
         <v>0.93263888888888891</v>
       </c>
       <c r="D265" s="2">
-        <v>0.59930555555555554</v>
+        <v>0.64097222222222217</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -26489,7 +26492,7 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="D266" s="2">
-        <v>0.6</v>
+        <v>0.64166666666666672</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -26584,7 +26587,7 @@
         <v>0.93402777777777779</v>
       </c>
       <c r="D267" s="2">
-        <v>0.60069444444444442</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="E267">
         <v>6</v>
@@ -26679,7 +26682,7 @@
         <v>0.93472222222222223</v>
       </c>
       <c r="D268" s="2">
-        <v>0.60138888888888886</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -26774,7 +26777,7 @@
         <v>0.93541666666666667</v>
       </c>
       <c r="D269" s="2">
-        <v>0.6020833333333333</v>
+        <v>0.64374999999999993</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -26869,7 +26872,7 @@
         <v>0.93611111111111101</v>
       </c>
       <c r="D270" s="2">
-        <v>0.60277777777777775</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -26964,7 +26967,7 @@
         <v>0.93680555555555556</v>
       </c>
       <c r="D271" s="2">
-        <v>0.60347222222222219</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -27059,7 +27062,7 @@
         <v>0.9375</v>
       </c>
       <c r="D272" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -27154,7 +27157,7 @@
         <v>0.93819444444444444</v>
       </c>
       <c r="D273" s="2">
-        <v>0.60486111111111118</v>
+        <v>0.64652777777777781</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -27249,7 +27252,7 @@
         <v>0.93888888888888899</v>
       </c>
       <c r="D274" s="2">
-        <v>0.60555555555555551</v>
+        <v>0.64722222222222225</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -27344,7 +27347,7 @@
         <v>0.93958333333333333</v>
       </c>
       <c r="D275" s="2">
-        <v>0.60625000000000007</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -27439,7 +27442,7 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="D276" s="2">
-        <v>0.6069444444444444</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -27534,7 +27537,7 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="D277" s="2">
-        <v>0.60763888888888895</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -27629,7 +27632,7 @@
         <v>0.94166666666666676</v>
       </c>
       <c r="D278" s="2">
-        <v>0.60833333333333328</v>
+        <v>0.65</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -27724,7 +27727,7 @@
         <v>0.94236111111111109</v>
       </c>
       <c r="D279" s="2">
-        <v>0.60902777777777783</v>
+        <v>0.65069444444444446</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -27819,7 +27822,7 @@
         <v>0.94305555555555554</v>
       </c>
       <c r="D280" s="2">
-        <v>0.60972222222222217</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -27914,7 +27917,7 @@
         <v>0.94374999999999998</v>
       </c>
       <c r="D281" s="2">
-        <v>0.61041666666666672</v>
+        <v>0.65208333333333335</v>
       </c>
       <c r="E281">
         <v>2</v>
@@ -28009,7 +28012,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="D282" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -28104,7 +28107,7 @@
         <v>0.94513888888888886</v>
       </c>
       <c r="D283" s="2">
-        <v>0.6118055555555556</v>
+        <v>0.65347222222222223</v>
       </c>
       <c r="E283">
         <v>2</v>
@@ -28199,7 +28202,7 @@
         <v>0.9458333333333333</v>
       </c>
       <c r="D284" s="2">
-        <v>0.61249999999999993</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -28294,7 +28297,7 @@
         <v>0.94652777777777775</v>
       </c>
       <c r="D285" s="2">
-        <v>0.61319444444444449</v>
+        <v>0.65486111111111112</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -28389,7 +28392,7 @@
         <v>0.9472222222222223</v>
       </c>
       <c r="D286" s="2">
-        <v>0.61388888888888882</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -28484,7 +28487,7 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="D287" s="2">
-        <v>0.61458333333333337</v>
+        <v>0.65625</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -28579,7 +28582,7 @@
         <v>0.94861111111111107</v>
       </c>
       <c r="D288" s="2">
-        <v>0.61527777777777781</v>
+        <v>0.65694444444444444</v>
       </c>
       <c r="E288">
         <v>2</v>
@@ -28674,7 +28677,7 @@
         <v>0.94930555555555562</v>
       </c>
       <c r="D289" s="2">
-        <v>0.61597222222222225</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="E289">
         <v>3</v>
@@ -28769,7 +28772,7 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="D290" s="2">
-        <v>0.6166666666666667</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="E290">
         <v>4</v>
@@ -28864,7 +28867,7 @@
         <v>0.9506944444444444</v>
       </c>
       <c r="D291" s="2">
-        <v>0.61736111111111114</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -28959,7 +28962,7 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="D292" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -29054,7 +29057,7 @@
         <v>0.95208333333333339</v>
       </c>
       <c r="D293" s="2">
-        <v>0.61875000000000002</v>
+        <v>0.66041666666666665</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -29149,7 +29152,7 @@
         <v>0.95277777777777783</v>
       </c>
       <c r="D294" s="2">
-        <v>0.61944444444444446</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -29244,7 +29247,7 @@
         <v>0.95347222222222217</v>
       </c>
       <c r="D295" s="2">
-        <v>0.62013888888888891</v>
+        <v>0.66180555555555554</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -29339,7 +29342,7 @@
         <v>0.95416666666666661</v>
       </c>
       <c r="D296" s="2">
-        <v>0.62083333333333335</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -29434,7 +29437,7 @@
         <v>0.95486111111111116</v>
       </c>
       <c r="D297" s="2">
-        <v>0.62152777777777779</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="E297">
         <v>4</v>
@@ -29529,7 +29532,7 @@
         <v>0.9555555555555556</v>
       </c>
       <c r="D298" s="2">
-        <v>0.62222222222222223</v>
+        <v>0.66388888888888886</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -29624,7 +29627,7 @@
         <v>0.95624999999999993</v>
       </c>
       <c r="D299" s="2">
-        <v>0.62291666666666667</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="E299">
         <v>5</v>
@@ -29719,7 +29722,7 @@
         <v>0.95694444444444438</v>
       </c>
       <c r="D300" s="2">
-        <v>0.62361111111111112</v>
+        <v>0.66527777777777775</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -29814,7 +29817,7 @@
         <v>0.95763888888888893</v>
       </c>
       <c r="D301" s="2">
-        <v>0.62430555555555556</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -29909,7 +29912,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="D302" s="2">
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -30004,7 +30007,7 @@
         <v>0.9590277777777777</v>
       </c>
       <c r="D303" s="2">
-        <v>0.62569444444444444</v>
+        <v>0.66736111111111107</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -30099,7 +30102,7 @@
         <v>0.95972222222222225</v>
       </c>
       <c r="D304" s="2">
-        <v>0.62638888888888888</v>
+        <v>0.66805555555555562</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -30194,7 +30197,7 @@
         <v>0.9604166666666667</v>
       </c>
       <c r="D305" s="2">
-        <v>0.62708333333333333</v>
+        <v>0.66875000000000007</v>
       </c>
       <c r="E305">
         <v>2</v>
@@ -30289,7 +30292,7 @@
         <v>0.96111111111111114</v>
       </c>
       <c r="D306" s="2">
-        <v>0.62777777777777777</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -30384,7 +30387,7 @@
         <v>0.96180555555555547</v>
       </c>
       <c r="D307" s="2">
-        <v>0.62847222222222221</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E307">
         <v>8</v>
@@ -30479,7 +30482,7 @@
         <v>0.96250000000000002</v>
       </c>
       <c r="D308" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.67083333333333339</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -30574,7 +30577,7 @@
         <v>0.96319444444444446</v>
       </c>
       <c r="D309" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.67152777777777783</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -30669,7 +30672,7 @@
         <v>0.96388888888888891</v>
       </c>
       <c r="D310" s="2">
-        <v>0.63055555555555554</v>
+        <v>0.67222222222222217</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -30764,7 +30767,7 @@
         <v>0.96458333333333324</v>
       </c>
       <c r="D311" s="2">
-        <v>0.63124999999999998</v>
+        <v>0.67291666666666661</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -30859,7 +30862,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="D312" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -30954,7 +30957,7 @@
         <v>0.96597222222222223</v>
       </c>
       <c r="D313" s="2">
-        <v>0.63263888888888886</v>
+        <v>0.6743055555555556</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -31049,7 +31052,7 @@
         <v>0.96666666666666667</v>
       </c>
       <c r="D314" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -31144,7 +31147,7 @@
         <v>0.96736111111111101</v>
       </c>
       <c r="D315" s="2">
-        <v>0.63402777777777775</v>
+        <v>0.67569444444444438</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -31239,7 +31242,7 @@
         <v>0.96805555555555556</v>
       </c>
       <c r="D316" s="2">
-        <v>0.63472222222222219</v>
+        <v>0.67638888888888893</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -31334,7 +31337,7 @@
         <v>0.96875</v>
       </c>
       <c r="D317" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -31429,7 +31432,7 @@
         <v>0.96944444444444444</v>
       </c>
       <c r="D318" s="2">
-        <v>0.63611111111111118</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -31524,7 +31527,7 @@
         <v>0.97013888888888899</v>
       </c>
       <c r="D319" s="2">
-        <v>0.63680555555555551</v>
+        <v>0.67847222222222225</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -31619,7 +31622,7 @@
         <v>0.97083333333333333</v>
       </c>
       <c r="D320" s="2">
-        <v>0.63750000000000007</v>
+        <v>0.6791666666666667</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -31714,7 +31717,7 @@
         <v>0.97152777777777777</v>
       </c>
       <c r="D321" s="2">
-        <v>0.6381944444444444</v>
+        <v>0.67986111111111114</v>
       </c>
       <c r="E321">
         <v>3</v>
@@ -31809,7 +31812,7 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="D322" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -31904,7 +31907,7 @@
         <v>0.97291666666666676</v>
       </c>
       <c r="D323" s="2">
-        <v>0.63958333333333328</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -31999,7 +32002,7 @@
         <v>0.97361111111111109</v>
       </c>
       <c r="D324" s="2">
-        <v>0.64027777777777783</v>
+        <v>0.68194444444444446</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -32094,7 +32097,7 @@
         <v>0.97430555555555554</v>
       </c>
       <c r="D325" s="2">
-        <v>0.64097222222222217</v>
+        <v>0.68263888888888891</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -32189,7 +32192,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="D326" s="2">
-        <v>0.64166666666666672</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -32284,7 +32287,7 @@
         <v>0.97569444444444453</v>
       </c>
       <c r="D327" s="2">
-        <v>0.64236111111111105</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="E327">
         <v>7</v>
@@ -32379,7 +32382,7 @@
         <v>0.97638888888888886</v>
       </c>
       <c r="D328" s="2">
-        <v>0.6430555555555556</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E328">
         <v>6</v>
@@ -32474,7 +32477,7 @@
         <v>0.9770833333333333</v>
       </c>
       <c r="D329" s="2">
-        <v>0.64374999999999993</v>
+        <v>0.68541666666666667</v>
       </c>
       <c r="E329">
         <v>2</v>
@@ -32569,7 +32572,7 @@
         <v>0.97777777777777775</v>
       </c>
       <c r="D330" s="2">
-        <v>0.64444444444444449</v>
+        <v>0.68611111111111101</v>
       </c>
       <c r="E330">
         <v>3</v>
@@ -32664,7 +32667,7 @@
         <v>0.9784722222222223</v>
       </c>
       <c r="D331" s="2">
-        <v>0.64513888888888882</v>
+        <v>0.68680555555555556</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -32759,7 +32762,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D332" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E332">
         <v>4</v>
@@ -32854,7 +32857,7 @@
         <v>0.97986111111111107</v>
       </c>
       <c r="D333" s="2">
-        <v>0.64652777777777781</v>
+        <v>0.68819444444444444</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -32949,7 +32952,7 @@
         <v>0.98055555555555562</v>
       </c>
       <c r="D334" s="2">
-        <v>0.64722222222222225</v>
+        <v>0.68888888888888899</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -33044,7 +33047,7 @@
         <v>0.98125000000000007</v>
       </c>
       <c r="D335" s="2">
-        <v>0.6479166666666667</v>
+        <v>0.68958333333333333</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -33139,7 +33142,7 @@
         <v>0.9819444444444444</v>
       </c>
       <c r="D336" s="2">
-        <v>0.64861111111111114</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -33234,7 +33237,7 @@
         <v>0.98263888888888884</v>
       </c>
       <c r="D337" s="2">
-        <v>0.64930555555555558</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -33329,7 +33332,7 @@
         <v>0.98333333333333339</v>
       </c>
       <c r="D338" s="2">
-        <v>0.65</v>
+        <v>0.69166666666666676</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -33424,7 +33427,7 @@
         <v>0.98402777777777783</v>
       </c>
       <c r="D339" s="2">
-        <v>0.65069444444444446</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -33519,7 +33522,7 @@
         <v>0.98472222222222217</v>
       </c>
       <c r="D340" s="2">
-        <v>0.65138888888888891</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -33614,7 +33617,7 @@
         <v>0.98541666666666661</v>
       </c>
       <c r="D341" s="2">
-        <v>0.65208333333333335</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -33709,7 +33712,7 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="D342" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -33804,7 +33807,7 @@
         <v>0.9868055555555556</v>
       </c>
       <c r="D343" s="2">
-        <v>0.65347222222222223</v>
+        <v>0.69513888888888886</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -33899,7 +33902,7 @@
         <v>0.98749999999999993</v>
       </c>
       <c r="D344" s="2">
-        <v>0.65416666666666667</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -33994,7 +33997,7 @@
         <v>0.98819444444444438</v>
       </c>
       <c r="D345" s="2">
-        <v>0.65486111111111112</v>
+        <v>0.69652777777777775</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -34089,7 +34092,7 @@
         <v>0.98888888888888893</v>
       </c>
       <c r="D346" s="2">
-        <v>0.65555555555555556</v>
+        <v>0.6972222222222223</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -34184,7 +34187,7 @@
         <v>0.98958333333333337</v>
       </c>
       <c r="D347" s="2">
-        <v>0.65625</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E347">
         <v>2</v>
@@ -34279,7 +34282,7 @@
         <v>0.9902777777777777</v>
       </c>
       <c r="D348" s="2">
-        <v>0.65694444444444444</v>
+        <v>0.69861111111111107</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -34374,7 +34377,7 @@
         <v>0.99097222222222225</v>
       </c>
       <c r="D349" s="2">
-        <v>0.65763888888888888</v>
+        <v>0.69930555555555562</v>
       </c>
       <c r="E349">
         <v>3</v>
@@ -34469,7 +34472,7 @@
         <v>0.9916666666666667</v>
       </c>
       <c r="D350" s="2">
-        <v>0.65833333333333333</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -34564,7 +34567,7 @@
         <v>0.99236111111111114</v>
       </c>
       <c r="D351" s="2">
-        <v>0.65902777777777777</v>
+        <v>0.7006944444444444</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -34659,7 +34662,7 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="D352" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -34754,7 +34757,7 @@
         <v>0.99375000000000002</v>
       </c>
       <c r="D353" s="2">
-        <v>0.66041666666666665</v>
+        <v>0.70208333333333339</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -34849,7 +34852,7 @@
         <v>0.99444444444444446</v>
       </c>
       <c r="D354" s="2">
-        <v>0.66111111111111109</v>
+        <v>0.70277777777777783</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -34944,7 +34947,7 @@
         <v>0.99513888888888891</v>
       </c>
       <c r="D355" s="2">
-        <v>0.66180555555555554</v>
+        <v>0.70347222222222217</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -35039,7 +35042,7 @@
         <v>0.99583333333333324</v>
       </c>
       <c r="D356" s="2">
-        <v>0.66249999999999998</v>
+        <v>0.70416666666666661</v>
       </c>
       <c r="E356">
         <v>3</v>
@@ -35134,7 +35137,7 @@
         <v>0.99652777777777779</v>
       </c>
       <c r="D357" s="2">
-        <v>0.66319444444444442</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -35229,7 +35232,7 @@
         <v>0.99722222222222223</v>
       </c>
       <c r="D358" s="2">
-        <v>0.66388888888888886</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="E358">
         <v>3</v>
@@ -35324,7 +35327,7 @@
         <v>0.99791666666666667</v>
       </c>
       <c r="D359" s="2">
-        <v>0.6645833333333333</v>
+        <v>0.70624999999999993</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -35419,7 +35422,7 @@
         <v>0.99861111111111101</v>
       </c>
       <c r="D360" s="2">
-        <v>0.66527777777777775</v>
+        <v>0.70694444444444438</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -35514,7 +35517,7 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D361" s="2">
-        <v>0.66597222222222219</v>
+        <v>0.70763888888888893</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -35609,7 +35612,7 @@
         <v>0</v>
       </c>
       <c r="D362" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -35704,7 +35707,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D363" s="2">
-        <v>0.66736111111111107</v>
+        <v>0.7090277777777777</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -35799,7 +35802,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D364" s="2">
-        <v>0.66805555555555562</v>
+        <v>0.70972222222222225</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -35894,7 +35897,7 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="D365" s="2">
-        <v>0.66875000000000007</v>
+        <v>0.7104166666666667</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -35989,7 +35992,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="D366" s="2">
-        <v>0.6694444444444444</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -36084,7 +36087,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D367" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -36179,7 +36182,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="D368" s="2">
-        <v>0.67083333333333339</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -36274,7 +36277,7 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D369" s="2">
-        <v>0.67152777777777783</v>
+        <v>0.71319444444444446</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -36369,7 +36372,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="D370" s="2">
-        <v>0.67222222222222217</v>
+        <v>0.71388888888888891</v>
       </c>
       <c r="E370">
         <v>4</v>
@@ -36464,7 +36467,7 @@
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="D371" s="2">
-        <v>0.67291666666666661</v>
+        <v>0.71458333333333324</v>
       </c>
       <c r="E371">
         <v>3</v>
@@ -36559,7 +36562,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D372" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -36654,7 +36657,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="D373" s="2">
-        <v>0.6743055555555556</v>
+        <v>0.71597222222222223</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -36749,7 +36752,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="D374" s="2">
-        <v>0.67499999999999993</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -36844,7 +36847,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="D375" s="2">
-        <v>0.67569444444444438</v>
+        <v>0.71736111111111101</v>
       </c>
       <c r="E375">
         <v>4</v>
@@ -36939,7 +36942,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="D376" s="2">
-        <v>0.67638888888888893</v>
+        <v>0.71805555555555556</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -37034,7 +37037,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D377" s="2">
-        <v>0.67708333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -37129,7 +37132,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="D378" s="2">
-        <v>0.6777777777777777</v>
+        <v>0.71944444444444444</v>
       </c>
       <c r="E378">
         <v>4</v>
@@ -37224,7 +37227,7 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="D379" s="2">
-        <v>0.67847222222222225</v>
+        <v>0.72013888888888899</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -37319,7 +37322,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="D380" s="2">
-        <v>0.6791666666666667</v>
+        <v>0.72083333333333333</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -37414,7 +37417,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="D381" s="2">
-        <v>0.67986111111111114</v>
+        <v>0.72152777777777777</v>
       </c>
       <c r="E381">
         <v>0</v>
@@ -37509,7 +37512,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D382" s="2">
-        <v>0.68055555555555547</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E382">
         <v>6</v>
@@ -37604,7 +37607,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="D383" s="2">
-        <v>0.68125000000000002</v>
+        <v>0.72291666666666676</v>
       </c>
       <c r="E383">
         <v>2</v>
@@ -37699,7 +37702,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D384" s="2">
-        <v>0.68194444444444446</v>
+        <v>0.72361111111111109</v>
       </c>
       <c r="E384">
         <v>5</v>
@@ -37794,7 +37797,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="D385" s="2">
-        <v>0.68263888888888891</v>
+        <v>0.72430555555555554</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -37889,7 +37892,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="D386" s="2">
-        <v>0.68333333333333324</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="E386">
         <v>3</v>
@@ -37984,7 +37987,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D387" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="E387">
         <v>3</v>
@@ -38079,7 +38082,7 @@
         <v>1.8055555555555557E-2</v>
       </c>
       <c r="D388" s="2">
-        <v>0.68472222222222223</v>
+        <v>0.72638888888888886</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -38174,7 +38177,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="D389" s="2">
-        <v>0.68541666666666667</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -38269,7 +38272,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="D390" s="2">
-        <v>0.68611111111111101</v>
+        <v>0.72777777777777775</v>
       </c>
       <c r="E390">
         <v>3</v>
@@ -38364,7 +38367,7 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="D391" s="2">
-        <v>0.68680555555555556</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="E391">
         <v>11</v>
@@ -38459,7 +38462,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D392" s="2">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -38554,7 +38557,7 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="D393" s="2">
-        <v>0.68819444444444444</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E393">
         <v>4</v>
@@ -38649,7 +38652,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="D394" s="2">
-        <v>0.68888888888888899</v>
+        <v>0.73055555555555562</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -38744,7 +38747,7 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="D395" s="2">
-        <v>0.68958333333333333</v>
+        <v>0.73125000000000007</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -38839,7 +38842,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="D396" s="2">
-        <v>0.69027777777777777</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="E396">
         <v>3</v>
@@ -38934,7 +38937,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D397" s="2">
-        <v>0.69097222222222221</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -39029,7 +39032,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="D398" s="2">
-        <v>0.69166666666666676</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -39124,7 +39127,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D399" s="2">
-        <v>0.69236111111111109</v>
+        <v>0.73402777777777783</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -39219,7 +39222,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="D400" s="2">
-        <v>0.69305555555555554</v>
+        <v>0.73472222222222217</v>
       </c>
       <c r="E400">
         <v>3</v>
@@ -39314,7 +39317,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="D401" s="2">
-        <v>0.69374999999999998</v>
+        <v>0.73541666666666661</v>
       </c>
       <c r="E401">
         <v>4</v>
@@ -39409,7 +39412,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D402" s="2">
-        <v>0.69444444444444453</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="E402">
         <v>3</v>
@@ -39504,7 +39507,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="D403" s="2">
-        <v>0.69513888888888886</v>
+        <v>0.7368055555555556</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -39599,7 +39602,7 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="D404" s="2">
-        <v>0.6958333333333333</v>
+        <v>0.73749999999999993</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -39694,7 +39697,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="D405" s="2">
-        <v>0.69652777777777775</v>
+        <v>0.73819444444444438</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -39789,7 +39792,7 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="D406" s="2">
-        <v>0.6972222222222223</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -39884,7 +39887,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D407" s="2">
-        <v>0.69791666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E407">
         <v>3</v>
@@ -39979,7 +39982,7 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="D408" s="2">
-        <v>0.69861111111111107</v>
+        <v>0.7402777777777777</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -40074,7 +40077,7 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="D409" s="2">
-        <v>0.69930555555555562</v>
+        <v>0.74097222222222225</v>
       </c>
       <c r="E409">
         <v>1</v>
@@ -40169,7 +40172,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D410" s="2">
-        <v>0.70000000000000007</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E410">
         <v>5</v>
@@ -40264,7 +40267,7 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="D411" s="2">
-        <v>0.7006944444444444</v>
+        <v>0.74236111111111114</v>
       </c>
       <c r="E411">
         <v>3</v>
@@ -40359,7 +40362,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="D412" s="2">
-        <v>0.70138888888888884</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -40454,7 +40457,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="D413" s="2">
-        <v>0.70208333333333339</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -40549,7 +40552,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="D414" s="2">
-        <v>0.70277777777777783</v>
+        <v>0.74444444444444446</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -40644,7 +40647,7 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="D415" s="2">
-        <v>0.70347222222222217</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -40739,7 +40742,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D416" s="2">
-        <v>0.70416666666666661</v>
+        <v>0.74583333333333324</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -40834,7 +40837,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="D417" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.74652777777777779</v>
       </c>
       <c r="E417">
         <v>0</v>
@@ -40929,7 +40932,7 @@
         <v>3.888888888888889E-2</v>
       </c>
       <c r="D418" s="2">
-        <v>0.7055555555555556</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -41024,7 +41027,7 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="D419" s="2">
-        <v>0.70624999999999993</v>
+        <v>0.74791666666666667</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -41119,7 +41122,7 @@
         <v>4.027777777777778E-2</v>
       </c>
       <c r="D420" s="2">
-        <v>0.70694444444444438</v>
+        <v>0.74861111111111101</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -41214,7 +41217,7 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="D421" s="2">
-        <v>0.70763888888888893</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="E421">
         <v>0</v>
@@ -41309,7 +41312,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D422" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E422">
         <v>4</v>
@@ -41404,7 +41407,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="D423" s="2">
-        <v>0.7090277777777777</v>
+        <v>0.75069444444444444</v>
       </c>
       <c r="E423">
         <v>4</v>
@@ -41499,7 +41502,7 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="D424" s="2">
-        <v>0.70972222222222225</v>
+        <v>0.75138888888888899</v>
       </c>
       <c r="E424">
         <v>2</v>
@@ -41594,7 +41597,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="D425" s="2">
-        <v>0.7104166666666667</v>
+        <v>0.75208333333333333</v>
       </c>
       <c r="E425">
         <v>0</v>
@@ -41689,7 +41692,7 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="D426" s="2">
-        <v>0.71111111111111114</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="E426">
         <v>7</v>
@@ -41784,7 +41787,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="D427" s="2">
-        <v>0.71180555555555547</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -41879,7 +41882,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="D428" s="2">
-        <v>0.71250000000000002</v>
+        <v>0.75416666666666676</v>
       </c>
       <c r="E428">
         <v>1</v>
@@ -41974,7 +41977,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="D429" s="2">
-        <v>0.71319444444444446</v>
+        <v>0.75486111111111109</v>
       </c>
       <c r="E429">
         <v>1</v>
@@ -42069,7 +42072,7 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="D430" s="2">
-        <v>0.71388888888888891</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="E430">
         <v>1</v>
@@ -42164,7 +42167,7 @@
         <v>4.7916666666666663E-2</v>
       </c>
       <c r="D431" s="2">
-        <v>0.71458333333333324</v>
+        <v>0.75624999999999998</v>
       </c>
       <c r="E431">
         <v>11</v>
@@ -42259,7 +42262,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="D432" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E432">
         <v>4</v>
@@ -42354,7 +42357,7 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="D433" s="2">
-        <v>0.71597222222222223</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="E433">
         <v>11</v>
@@ -42449,7 +42452,7 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="D434" s="2">
-        <v>0.71666666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="E434">
         <v>7</v>
@@ -42544,7 +42547,7 @@
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="D435" s="2">
-        <v>0.71736111111111101</v>
+        <v>0.75902777777777775</v>
       </c>
       <c r="E435">
         <v>6</v>
@@ -42639,7 +42642,7 @@
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="D436" s="2">
-        <v>0.71805555555555556</v>
+        <v>0.7597222222222223</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -42734,7 +42737,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D437" s="2">
-        <v>0.71875</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E437">
         <v>4</v>
@@ -42829,7 +42832,7 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="D438" s="2">
-        <v>0.71944444444444444</v>
+        <v>0.76111111111111107</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -42924,7 +42927,7 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="D439" s="2">
-        <v>0.72013888888888899</v>
+        <v>0.76180555555555562</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -43019,7 +43022,7 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="D440" s="2">
-        <v>0.72083333333333333</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -43114,7 +43117,7 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="D441" s="2">
-        <v>0.72152777777777777</v>
+        <v>0.7631944444444444</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -43209,7 +43212,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="D442" s="2">
-        <v>0.72222222222222221</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="E442">
         <v>3</v>
@@ -43304,7 +43307,7 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="D443" s="2">
-        <v>0.72291666666666676</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -43399,7 +43402,7 @@
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="D444" s="2">
-        <v>0.72361111111111109</v>
+        <v>0.76527777777777783</v>
       </c>
       <c r="E444">
         <v>4</v>
@@ -43494,7 +43497,7 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="D445" s="2">
-        <v>0.72430555555555554</v>
+        <v>0.76597222222222217</v>
       </c>
       <c r="E445">
         <v>3</v>
@@ -43589,7 +43592,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="D446" s="2">
-        <v>0.72499999999999998</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="E446">
         <v>0</v>
@@ -43684,7 +43687,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="D447" s="2">
-        <v>0.72569444444444453</v>
+        <v>0.76736111111111116</v>
       </c>
       <c r="E447">
         <v>11</v>
@@ -43779,7 +43782,7 @@
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="D448" s="2">
-        <v>0.72638888888888886</v>
+        <v>0.7680555555555556</v>
       </c>
       <c r="E448">
         <v>6</v>
@@ -43874,7 +43877,7 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="D449" s="2">
-        <v>0.7270833333333333</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="E449">
         <v>0</v>
@@ -43969,7 +43972,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="D450" s="2">
-        <v>0.72777777777777775</v>
+        <v>0.76944444444444438</v>
       </c>
       <c r="E450">
         <v>6</v>
@@ -44064,7 +44067,7 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="D451" s="2">
-        <v>0.7284722222222223</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -44159,7 +44162,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D452" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -44254,7 +44257,7 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="D453" s="2">
-        <v>0.72986111111111107</v>
+        <v>0.7715277777777777</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -44349,7 +44352,7 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="D454" s="2">
-        <v>0.73055555555555562</v>
+        <v>0.77222222222222225</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -44444,7 +44447,7 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="D455" s="2">
-        <v>0.73125000000000007</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -44539,7 +44542,7 @@
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="D456" s="2">
-        <v>0.7319444444444444</v>
+        <v>0.77361111111111114</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -44634,7 +44637,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="D457" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.77430555555555547</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -44729,7 +44732,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="D458" s="2">
-        <v>0.73333333333333339</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -44824,7 +44827,7 @@
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="D459" s="2">
-        <v>0.73402777777777783</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -44919,7 +44922,7 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="D460" s="2">
-        <v>0.73472222222222217</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E460">
         <v>3</v>
@@ -45014,7 +45017,7 @@
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="D461" s="2">
-        <v>0.73541666666666661</v>
+        <v>0.77708333333333324</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -45109,7 +45112,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="D462" s="2">
-        <v>0.73611111111111116</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -45204,7 +45207,7 @@
         <v>7.013888888888889E-2</v>
       </c>
       <c r="D463" s="2">
-        <v>0.7368055555555556</v>
+        <v>0.77847222222222223</v>
       </c>
       <c r="E463">
         <v>3</v>
@@ -45299,7 +45302,7 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="D464" s="2">
-        <v>0.73749999999999993</v>
+        <v>0.77916666666666667</v>
       </c>
       <c r="E464">
         <v>3</v>
@@ -45394,7 +45397,7 @@
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="D465" s="2">
-        <v>0.73819444444444438</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="E465">
         <v>0</v>
@@ -45489,7 +45492,7 @@
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="D466" s="2">
-        <v>0.73888888888888893</v>
+        <v>0.78055555555555556</v>
       </c>
       <c r="E466">
         <v>2</v>
@@ -45584,7 +45587,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D467" s="2">
-        <v>0.73958333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="E467">
         <v>3</v>
@@ -45679,7 +45682,7 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="D468" s="2">
-        <v>0.7402777777777777</v>
+        <v>0.78194444444444444</v>
       </c>
       <c r="E468">
         <v>4</v>
@@ -45774,7 +45777,7 @@
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="D469" s="2">
-        <v>0.74097222222222225</v>
+        <v>0.78263888888888899</v>
       </c>
       <c r="E469">
         <v>0</v>
@@ -45869,7 +45872,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D470" s="2">
-        <v>0.7416666666666667</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -45964,7 +45967,7 @@
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="D471" s="2">
-        <v>0.74236111111111114</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -46059,7 +46062,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="D472" s="2">
-        <v>0.74305555555555547</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="E472">
         <v>0</v>
@@ -46154,7 +46157,7 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="D473" s="2">
-        <v>0.74375000000000002</v>
+        <v>0.78541666666666676</v>
       </c>
       <c r="E473">
         <v>0</v>
@@ -46249,7 +46252,7 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="D474" s="2">
-        <v>0.74444444444444446</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="E474">
         <v>0</v>
@@ -46344,7 +46347,7 @@
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="D475" s="2">
-        <v>0.74513888888888891</v>
+        <v>0.78680555555555554</v>
       </c>
       <c r="E475">
         <v>0</v>
@@ -46439,7 +46442,7 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="D476" s="2">
-        <v>0.74583333333333324</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="E476">
         <v>0</v>
@@ -46534,7 +46537,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="D477" s="2">
-        <v>0.74652777777777779</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="E477">
         <v>5</v>
@@ -46629,7 +46632,7 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="D478" s="2">
-        <v>0.74722222222222223</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -46724,7 +46727,7 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="D479" s="2">
-        <v>0.74791666666666667</v>
+        <v>0.7895833333333333</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -46819,7 +46822,7 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="D480" s="2">
-        <v>0.74861111111111101</v>
+        <v>0.79027777777777775</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -46914,7 +46917,7 @@
         <v>8.2638888888888887E-2</v>
       </c>
       <c r="D481" s="2">
-        <v>0.74930555555555556</v>
+        <v>0.7909722222222223</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -47009,7 +47012,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D482" s="2">
-        <v>0.75</v>
+        <v>0.79166666666666596</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -47104,7 +47107,7 @@
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="D483" s="2">
-        <v>0.75069444444444444</v>
+        <v>0.79236111111111096</v>
       </c>
       <c r="E483">
         <v>0</v>
@@ -47199,7 +47202,7 @@
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="D484" s="2">
-        <v>0.75138888888888899</v>
+        <v>0.79305555555555496</v>
       </c>
       <c r="E484">
         <v>0</v>
@@ -47294,7 +47297,7 @@
         <v>8.5416666666666655E-2</v>
       </c>
       <c r="D485" s="2">
-        <v>0.75208333333333333</v>
+        <v>0.79374999999999896</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -47389,7 +47392,7 @@
         <v>8.6111111111111124E-2</v>
       </c>
       <c r="D486" s="2">
-        <v>0.75277777777777777</v>
+        <v>0.79444444444444395</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -47484,7 +47487,7 @@
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="D487" s="2">
-        <v>0.75347222222222221</v>
+        <v>0.79513888888888795</v>
       </c>
       <c r="E487">
         <v>0</v>
@@ -47579,7 +47582,7 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="D488" s="2">
-        <v>0.75416666666666676</v>
+        <v>0.79583333333333195</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -47674,7 +47677,7 @@
         <v>8.819444444444445E-2</v>
       </c>
       <c r="D489" s="2">
-        <v>0.75486111111111109</v>
+        <v>0.79652777777777695</v>
       </c>
       <c r="E489">
         <v>0</v>
@@ -47769,7 +47772,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="D490" s="2">
-        <v>0.75555555555555554</v>
+        <v>0.79722222222222106</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -47864,7 +47867,7 @@
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="D491" s="2">
-        <v>0.75624999999999998</v>
+        <v>0.79791666666666505</v>
       </c>
       <c r="E491">
         <v>0</v>
@@ -47959,7 +47962,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="D492" s="2">
-        <v>0.75694444444444453</v>
+        <v>0.79861111111110905</v>
       </c>
       <c r="E492">
         <v>0</v>
@@ -48054,7 +48057,7 @@
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="D493" s="2">
-        <v>0.75763888888888886</v>
+        <v>0.79930555555555405</v>
       </c>
       <c r="E493">
         <v>0</v>
@@ -48149,7 +48152,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="D494" s="2">
-        <v>0.7583333333333333</v>
+        <v>0.79999999999999805</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -48244,7 +48247,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="D495" s="2">
-        <v>0.75902777777777775</v>
+        <v>0.80069444444444204</v>
       </c>
       <c r="E495">
         <v>0</v>
@@ -48339,7 +48342,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="D496" s="2">
-        <v>0.7597222222222223</v>
+        <v>0.80138888888888704</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -48434,7 +48437,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="D497" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.80208333333333104</v>
       </c>
       <c r="E497">
         <v>0</v>
@@ -48529,7 +48532,7 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="D498" s="2">
-        <v>0.76111111111111107</v>
+        <v>0.80277777777777504</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -48624,7 +48627,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="D499" s="2">
-        <v>0.76180555555555562</v>
+        <v>0.80347222222222003</v>
       </c>
       <c r="E499">
         <v>0</v>
@@ -48719,7 +48722,7 @@
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="D500" s="2">
-        <v>0.76250000000000007</v>
+        <v>0.80416666666666403</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -48814,7 +48817,7 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="D501" s="2">
-        <v>0.7631944444444444</v>
+        <v>0.80486111111110803</v>
       </c>
       <c r="E501">
         <v>0</v>
@@ -48909,7 +48912,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="D502" s="2">
-        <v>0.76388888888888884</v>
+        <v>0.80555555555555303</v>
       </c>
       <c r="E502">
         <v>0</v>
@@ -49004,7 +49007,7 @@
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="D503" s="2">
-        <v>0.76458333333333339</v>
+        <v>0.80624999999999702</v>
       </c>
       <c r="E503">
         <v>0</v>
@@ -49099,7 +49102,7 @@
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="D504" s="2">
-        <v>0.76527777777777783</v>
+        <v>0.80694444444444102</v>
       </c>
       <c r="E504">
         <v>0</v>
@@ -49194,7 +49197,7 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="D505" s="2">
-        <v>0.76597222222222217</v>
+        <v>0.80763888888888602</v>
       </c>
       <c r="E505">
         <v>0</v>
@@ -49289,7 +49292,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D506" s="2">
-        <v>0.76666666666666661</v>
+        <v>0.80833333333333002</v>
       </c>
       <c r="E506">
         <v>0</v>
@@ -49384,7 +49387,7 @@
         <v>0.10069444444444443</v>
       </c>
       <c r="D507" s="2">
-        <v>0.76736111111111116</v>
+        <v>0.80902777777777402</v>
       </c>
       <c r="E507">
         <v>0</v>
@@ -49479,7 +49482,7 @@
         <v>0.1013888888888889</v>
       </c>
       <c r="D508" s="2">
-        <v>0.7680555555555556</v>
+        <v>0.80972222222221901</v>
       </c>
       <c r="E508">
         <v>0</v>
@@ -49574,7 +49577,7 @@
         <v>0.10208333333333335</v>
       </c>
       <c r="D509" s="2">
-        <v>0.76874999999999993</v>
+        <v>0.81041666666666301</v>
       </c>
       <c r="E509">
         <v>0</v>
@@ -49669,7 +49672,7 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="D510" s="2">
-        <v>0.76944444444444438</v>
+        <v>0.81111111111110701</v>
       </c>
       <c r="E510">
         <v>0</v>
@@ -49764,7 +49767,7 @@
         <v>0.10347222222222223</v>
       </c>
       <c r="D511" s="2">
-        <v>0.77013888888888893</v>
+        <v>0.81180555555555201</v>
       </c>
       <c r="E511">
         <v>0</v>
@@ -49859,7 +49862,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="D512" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.812499999999996</v>
       </c>
       <c r="E512">
         <v>0</v>
@@ -49954,7 +49957,7 @@
         <v>0.10486111111111111</v>
       </c>
       <c r="D513" s="2">
-        <v>0.7715277777777777</v>
+        <v>0.81319444444444</v>
       </c>
       <c r="E513">
         <v>0</v>
@@ -50049,7 +50052,7 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="D514" s="2">
-        <v>0.77222222222222225</v>
+        <v>0.813888888888885</v>
       </c>
       <c r="E514">
         <v>0</v>
@@ -50144,7 +50147,7 @@
         <v>0.10625</v>
       </c>
       <c r="D515" s="2">
-        <v>0.7729166666666667</v>
+        <v>0.814583333333329</v>
       </c>
       <c r="E515">
         <v>0</v>
@@ -50239,7 +50242,7 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="D516" s="2">
-        <v>0.77361111111111114</v>
+        <v>0.81527777777777299</v>
       </c>
       <c r="E516">
         <v>0</v>
@@ -50334,7 +50337,7 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="D517" s="2">
-        <v>0.77430555555555547</v>
+        <v>0.81597222222221799</v>
       </c>
       <c r="E517">
         <v>0</v>
@@ -50429,7 +50432,7 @@
         <v>0.10833333333333334</v>
       </c>
       <c r="D518" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.81666666666666199</v>
       </c>
       <c r="E518">
         <v>0</v>
@@ -50524,7 +50527,7 @@
         <v>0.10902777777777778</v>
       </c>
       <c r="D519" s="2">
-        <v>0.77569444444444446</v>
+        <v>0.81736111111110599</v>
       </c>
       <c r="E519">
         <v>6</v>
@@ -50619,7 +50622,7 @@
         <v>0.10972222222222222</v>
       </c>
       <c r="D520" s="2">
-        <v>0.77638888888888891</v>
+        <v>0.81805555555555098</v>
       </c>
       <c r="E520">
         <v>0</v>
@@ -50714,7 +50717,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="D521" s="2">
-        <v>0.77708333333333324</v>
+        <v>0.81874999999999498</v>
       </c>
       <c r="E521">
         <v>0</v>
@@ -50809,7 +50812,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D522" s="2">
-        <v>0.77777777777777779</v>
+        <v>0.81944444444443898</v>
       </c>
       <c r="E522">
         <v>0</v>
@@ -50904,7 +50907,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="D523" s="2">
-        <v>0.77847222222222223</v>
+        <v>0.82013888888888398</v>
       </c>
       <c r="E523">
         <v>0</v>
@@ -50999,7 +51002,7 @@
         <v>0.1125</v>
       </c>
       <c r="D524" s="2">
-        <v>0.77916666666666667</v>
+        <v>0.82083333333332797</v>
       </c>
       <c r="E524">
         <v>0</v>
@@ -51094,7 +51097,7 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="D525" s="2">
-        <v>0.77986111111111101</v>
+        <v>0.82152777777777197</v>
       </c>
       <c r="E525">
         <v>0</v>
@@ -51189,7 +51192,7 @@
         <v>0.11388888888888889</v>
       </c>
       <c r="D526" s="2">
-        <v>0.78055555555555556</v>
+        <v>0.82222222222221697</v>
       </c>
       <c r="E526">
         <v>0</v>
@@ -51284,7 +51287,7 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="D527" s="2">
-        <v>0.78125</v>
+        <v>0.82291666666666097</v>
       </c>
       <c r="E527">
         <v>0</v>
@@ -51379,7 +51382,7 @@
         <v>0.11527777777777777</v>
       </c>
       <c r="D528" s="2">
-        <v>0.78194444444444444</v>
+        <v>0.82361111111110497</v>
       </c>
       <c r="E528">
         <v>0</v>
@@ -51474,7 +51477,7 @@
         <v>0.11597222222222221</v>
       </c>
       <c r="D529" s="2">
-        <v>0.78263888888888899</v>
+        <v>0.82430555555554996</v>
       </c>
       <c r="E529">
         <v>0</v>
@@ -51569,7 +51572,7 @@
         <v>0.11666666666666665</v>
       </c>
       <c r="D530" s="2">
-        <v>0.78333333333333333</v>
+        <v>0.82499999999999396</v>
       </c>
       <c r="E530">
         <v>0</v>
@@ -51664,7 +51667,7 @@
         <v>0.1173611111111111</v>
       </c>
       <c r="D531" s="2">
-        <v>0.78402777777777777</v>
+        <v>0.82569444444443796</v>
       </c>
       <c r="E531">
         <v>0</v>
@@ -51759,7 +51762,7 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D532" s="2">
-        <v>0.78472222222222221</v>
+        <v>0.82638888888888296</v>
       </c>
       <c r="E532">
         <v>0</v>
@@ -51854,7 +51857,7 @@
         <v>0.11875000000000001</v>
       </c>
       <c r="D533" s="2">
-        <v>0.78541666666666676</v>
+        <v>0.82708333333332695</v>
       </c>
       <c r="E533">
         <v>0</v>
@@ -51949,7 +51952,7 @@
         <v>0.11944444444444445</v>
       </c>
       <c r="D534" s="2">
-        <v>0.78611111111111109</v>
+        <v>0.82777777777777095</v>
       </c>
       <c r="E534">
         <v>0</v>
@@ -52044,7 +52047,7 @@
         <v>0.12013888888888889</v>
       </c>
       <c r="D535" s="2">
-        <v>0.78680555555555554</v>
+        <v>0.82847222222221595</v>
       </c>
       <c r="E535">
         <v>0</v>
@@ -52139,7 +52142,7 @@
         <v>0.12083333333333333</v>
       </c>
       <c r="D536" s="2">
-        <v>0.78749999999999998</v>
+        <v>0.82916666666665995</v>
       </c>
       <c r="E536">
         <v>0</v>
@@ -52234,7 +52237,7 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="D537" s="2">
-        <v>0.78819444444444453</v>
+        <v>0.82986111111110406</v>
       </c>
       <c r="E537">
         <v>0</v>
@@ -52329,7 +52332,7 @@
         <v>0.12222222222222223</v>
       </c>
       <c r="D538" s="2">
-        <v>0.78888888888888886</v>
+        <v>0.83055555555554905</v>
       </c>
       <c r="E538">
         <v>0</v>
@@ -52424,7 +52427,7 @@
         <v>0.12291666666666667</v>
       </c>
       <c r="D539" s="2">
-        <v>0.7895833333333333</v>
+        <v>0.83124999999999305</v>
       </c>
       <c r="E539">
         <v>0</v>
@@ -52519,7 +52522,7 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="D540" s="2">
-        <v>0.79027777777777775</v>
+        <v>0.83194444444443705</v>
       </c>
       <c r="E540">
         <v>0</v>
@@ -52614,7 +52617,7 @@
         <v>0.12430555555555556</v>
       </c>
       <c r="D541" s="2">
-        <v>0.7909722222222223</v>
+        <v>0.83263888888888204</v>
       </c>
       <c r="E541">
         <v>0</v>
